--- a/biology/Médecine/Hospital/Hospital.xlsx
+++ b/biology/Médecine/Hospital/Hospital.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hospital est un film documentaire américain de Frederick Wiseman sorti en 1970. Le film montre la vie quotidienne du Metropolitan Hospital à New York.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Frederick Wiseman filme plus particulièrement les activités du service des urgences. À travers différentes situations, il montre comment la disponibilité des équipements, l'expertise médicale, les problèmes d'organisation et la communication entre les membres de l'équipe médicale conditionnent les soins donnés aux patients.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Hospital
 Réalisation : Frederick Wiseman
@@ -578,7 +594,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Eugene Friedman : lui-même (sous le nom de Dr Eugene Friedman M.D.)
 Stanley Friedman : lui-même (sous le nom de Dr Stanley Friedman M.D.)
@@ -610,10 +628,12 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1970, le film a gagné deux Emmy Awards pour le meilleur film documentaire et le meilleur réalisateur[1].
-Ce film a été sélectionné en 1994 par le National Film Preservation Board pour conservation à la Bibliothèque du Congrès aux États-Unis dans le National Film Registry[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1970, le film a gagné deux Emmy Awards pour le meilleur film documentaire et le meilleur réalisateur.
+Ce film a été sélectionné en 1994 par le National Film Preservation Board pour conservation à la Bibliothèque du Congrès aux États-Unis dans le National Film Registry.
 </t>
         </is>
       </c>
